--- a/DeveloperLearningPath.xlsx
+++ b/DeveloperLearningPath.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Yaptığınız her işlemi github da repository açarak oraya atınız (gtihub)</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Memory leak nedir? Öğreniniz.Nasıl engellenir?</t>
   </si>
   <si>
-    <t>Araştırma sorusu:Fonksiyonların adreslerine erişip onları pointerler aracılığıyla call yapmayı öğreniniz.Bu ne işe yarar fikrinizi yazınız</t>
-  </si>
-  <si>
     <t>Data Structures</t>
   </si>
   <si>
@@ -282,18 +279,12 @@
     <t>oluşturduğunuz struct yapısını tip haline getiriniz</t>
   </si>
   <si>
-    <t>Bu tipten 1000 lik bir dizi oluşturun Örn Ogr[1000] şeklinde</t>
-  </si>
-  <si>
     <t>aynı isteği dizi kullanmak yerine bağlı liste kullanarak çözmeye çalışınız.Birbiriyle karşılaştırınız.Avantaj dezavantaj</t>
   </si>
   <si>
     <t>aynı isteği yığın ve kuyruk mantığıyla yazınız.Ve kuyruk ve yığın nerde kullanılır bulmaya çalışınız</t>
   </si>
   <si>
-    <t>Bağlı Listeyi Ağaç formuna dönüştürünüz.Rastgele bir ağaç olsun</t>
-  </si>
-  <si>
     <t>İkili arama Ağacı oluşturun.Arama işlemindeki sonuç farkını ortaya koyunuz</t>
   </si>
   <si>
@@ -378,9 +369,6 @@
     <t>Compiling linking executing hakkında bilgi toplayınız (Ön bilgi)</t>
   </si>
   <si>
-    <t>It is recommended that do your homework on  linux os with gcc compiler.You may use any editor. For example ; Codeblocks ,netbeans,eclipse etc.. you don't have to  do the homeworks by C programming language.İstenen ödevler linux da gcc üzerinde yapmanız önerilir .Herhangi bir editör kullanabilirsiniz.netbeans eclipse codeblocks C ile yapmanız şart değildir.</t>
-  </si>
-  <si>
     <t>Zor soru:abc karakter  dizisinin tüm permütasyonlarını hesaplayıp ekrana yazdırınız.</t>
   </si>
   <si>
@@ -451,13 +439,94 @@
   </si>
   <si>
     <t>B+Tree indexing kavramlarının dbms ler ile ne alakası vardır öğreniniz.</t>
+  </si>
+  <si>
+    <t>DLL standard call dynamic call nedir öğreniniz.DLL hell nedir öğreniniz.</t>
+  </si>
+  <si>
+    <t>Mümkün olan bir dil ile DLL dosyası oluşturup oluşturduğunuz DLL dosyasınının içine 4 işlem fonksiyonları yazınız. Sonra bu fonksiyonları başka bir programdan call yapınız .</t>
+  </si>
+  <si>
+    <t>Microsoft için Com obje nedir?Dcom nedir?Com+  nedir? Neden ihtiyaç duyulmuştur?</t>
+  </si>
+  <si>
+    <t>DLL nedir ve hangi amaçlar için kullanılmaktadır? Linux da Dll karşılığı olan varsa dosya türlerini öğrenin.</t>
+  </si>
+  <si>
+    <t>DLL çağrısı yapılan bir programda mevcut dll olmadan program çalışır mı?Çalışırsa nasıl çalışır?</t>
+  </si>
+  <si>
+    <t>Dynamic Link Library (DLL)</t>
+  </si>
+  <si>
+    <t>Obj dosyası,activex dosyları nedir?Bu dosyaların dll den farkı / benzerliği nedir?</t>
+  </si>
+  <si>
+    <t>Executable files</t>
+  </si>
+  <si>
+    <t>Executable dosyalar nelerdir?DLL,Exe,Com dosyalarının farkı benzerlikleri nelerdir? (MS için)</t>
+  </si>
+  <si>
+    <t>Com dosyası yazmayı deneyiniz.Com Dosyası'na neden ihtiyaç duyulmuş?Nerelerde kullanılmış?</t>
+  </si>
+  <si>
+    <t>JAR dosyası executable midir?Niçin?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yazdığınız bir programı console dan çalıştırınız.Ve gönderdiğiniz parametrelere göre işlem yapıp sonucuna göre bir aksiyon gerçekleştirsin.Örn: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myprog.exe -C:\windows\notepad.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yazdıktan sonra Notepad programını çalıştırsın.</t>
+    </r>
+  </si>
+  <si>
+    <t>Windows task manager ı çalıştırıp sütünlar da komut satırı seçeneğini aktif edip inceleyiniz…</t>
+  </si>
+  <si>
+    <t>It is recommended that do some of your homework on  linux os with gcc compiler.You may use any editor. For example ; Codeblocks ,netbeans,eclipse etc.. you don't have to  do the homeworks by C programming language.İstenen ödevlerin bazılarını linux da gcc üzerinde yapmanız önerilir .Herhangi bir editör kullanabilirsiniz.netbeans eclipse codeblocks C ile yapmanız şart değildir.</t>
+  </si>
+  <si>
+    <t>Araştırma sorusu:Fonksiyonların adreslerine erişip onları pointerler aracılığıyla call edilebilir mi.Bu ne işe yarar? fikrinizi yazınız</t>
+  </si>
+  <si>
+    <t>Bu tipten 1000 lik bir dizi oluşturun Örn Ogr[1000] şeklinde ve içine uygun rastgele değerler atayınız.</t>
+  </si>
+  <si>
+    <t>Bağlı Listeyi Ağaç formuna dönüştürünüz.Rastgele bir ağaç olsun.Ve içinde arama yapınız.Arama süresini not alınız</t>
+  </si>
+  <si>
+    <t>Zor Soru:Herhangi bir exe file bularak reverse edip main function 'o bulunuz .Bununla ne yapılabiliriz düşününüz.</t>
+  </si>
+  <si>
+    <t>olly debug olabilir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +573,14 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -562,14 +639,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,21 +997,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="137" style="3" customWidth="1"/>
+    <col min="1" max="1" width="140.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -954,7 +1031,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1014,7 +1091,7 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1022,19 +1099,19 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
@@ -1102,7 +1179,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1167,7 +1244,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1206,7 +1283,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -1214,14 +1291,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="30">
+    <row r="55" spans="1:1">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -1321,302 +1398,375 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="3" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="30">
       <c r="A77" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="3" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="3" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="30">
       <c r="A105" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="30">
       <c r="A106" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="30">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="3" t="s">
-        <v>119</v>
+      <c r="A109" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="2" t="s">
-        <v>100</v>
+      <c r="A110" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="9" t="s">
-        <v>137</v>
+      <c r="A111" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="5" t="s">
-        <v>101</v>
+      <c r="A112" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="3" t="s">
-        <v>118</v>
+      <c r="A115" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="5" t="s">
-        <v>102</v>
+      <c r="A116" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="3" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="3" t="s">
-        <v>110</v>
+      <c r="A125" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="9" t="s">
-        <v>134</v>
+      <c r="A126" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:2" ht="30">
       <c r="A136" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="30">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:2" ht="30">
+      <c r="A137" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="30">
+      <c r="A143" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="30">
+      <c r="A148" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="30">
-      <c r="A138" s="3" t="s">
-        <v>135</v>
+    <row r="150" spans="1:1">
+      <c r="A150" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1626,9 +1776,10 @@
   <hyperlinks>
     <hyperlink ref="B47" r:id="rId1" display="Proses kavramını Operating system kavramı olarak öğreniniz Örn"/>
     <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B144" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>